--- a/datos.xlsx
+++ b/datos.xlsx
@@ -42,9 +42,6 @@
     <t>MIEMBRO</t>
   </si>
   <si>
-    <t>Codificacion</t>
-  </si>
-  <si>
     <t>Terminados</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Se debe añadir Inyeccion de Dependencia</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
